--- a/Burgerama Burger Shop App/material/TestCases.xlsx
+++ b/Burgerama Burger Shop App/material/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanoll\source\repos\burgerama-burger-shop\Burgerama Burger Shop App\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1002D6-7C35-41EA-94FD-819E2EF40298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA38D6-A0D8-4033-B6EB-16561446441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6105" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,9 @@
   <si>
     <t>1) Enter either "1" or "2" in the Menu
 2) Press Enter</t>
+  </si>
+  <si>
+    <t>UI012</t>
   </si>
   <si>
     <t>UI001-N</t>
@@ -246,6 +249,235 @@
   <si>
     <t>Registration will be continued.
 The User will be promted to enter a city</t>
+  </si>
+  <si>
+    <t>UI006-N</t>
+  </si>
+  <si>
+    <t>The Registration asks for a city. The Input cant be empty and muts be a german city for delivery purpouses</t>
+  </si>
+  <si>
+    <t>During Registration a valid Email,Password,Street and ZIP have to be entered</t>
+  </si>
+  <si>
+    <t>The Input won`t be accepted and the User will be promted to enter a valid city</t>
+  </si>
+  <si>
+    <t>UI006-P</t>
+  </si>
+  <si>
+    <t>1) Enter: Tuttlingen
+2) Press Enter
+3) Press Enter</t>
+  </si>
+  <si>
+    <t>Registration is completed and the User should be back at the main menu</t>
+  </si>
+  <si>
+    <t>UI007-N</t>
+  </si>
+  <si>
+    <t>The User will be promted to LogIn using a registered Email</t>
+  </si>
+  <si>
+    <t>Login is chosen from the main menu</t>
+  </si>
+  <si>
+    <t>The Input wont be accepted an the
+User should be promted to use a valid and taken Email</t>
+  </si>
+  <si>
+    <t>UI007-P</t>
+  </si>
+  <si>
+    <t>The Input will be accepted and the User will be promted to enter a password</t>
+  </si>
+  <si>
+    <t>UI008-N</t>
+  </si>
+  <si>
+    <t>The User will be promted to LogIn using a password connected to a registered Email</t>
+  </si>
+  <si>
+    <t>Login is chosen from the main menu and a registered email was entered</t>
+  </si>
+  <si>
+    <t>Input: Literally anything different than the correct password</t>
+  </si>
+  <si>
+    <t>UI008-P</t>
+  </si>
+  <si>
+    <t>UI009-N</t>
+  </si>
+  <si>
+    <t>The User can order a Product by using the number on the most left side of the table</t>
+  </si>
+  <si>
+    <t>The User is successfully logged in after choosing login from the main menu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Input must be invisible during the whole Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The Login information will be accepted, the user will be logged in and redirected to the ordermenu where a list of products should appear with the useres email at the top</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Input must be invisible during the whole Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The User will be told that the login credentials were incorrect and has to enter the email and password again</t>
+    </r>
+  </si>
+  <si>
+    <t>Input: - numbers outside of "1" and "14", 
+- negative numbers,
+- words and characters</t>
+  </si>
+  <si>
+    <t>The Input wont be accepted an the
+User should be promted to enter a valid option</t>
+  </si>
+  <si>
+    <t>UI009-P</t>
+  </si>
+  <si>
+    <t>1) Enter: 1
+2) Press Enter</t>
+  </si>
+  <si>
+    <t>UI010-N</t>
+  </si>
+  <si>
+    <t>The User can order a Product by using the number on the most left side of the table. We are ordering  a Drink which has the option to get it with or without ice</t>
+  </si>
+  <si>
+    <t>Input: - nothing
+- just spaces
+- words or characters
+- negative and positive numbers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Press: 7 and the Press Enter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repeat for every given Input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Enter anything from the Input
+2) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>The Application should ask if the user wants his drink with or without Ice. But we are not entering true or false so the User will be promted to make a valid input. The Product will not be put into the shopping cart.</t>
+  </si>
+  <si>
+    <t>UI010-P</t>
+  </si>
+  <si>
+    <t>Input: - true
+              - false</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repeat for every given Input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Press: 7
+2) Press Enter
+3) Enter: [Input]
+4) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <t>The Input should be accepted and behind the Price of the Coca Cola a (1) should appear</t>
+  </si>
+  <si>
+    <t>The Input should be accepted and behind the Price of the Cheeseburger a (1) should appear</t>
+  </si>
+  <si>
+    <t>UI011-N</t>
+  </si>
+  <si>
+    <t>The User can order a Product by using the number on the most left side of the table. We are ordering  a Hoodie which has the option to choose a size</t>
+  </si>
+  <si>
+    <t>UI011-P</t>
+  </si>
+  <si>
+    <t>We choose a few products and now want to finish our order, want to see what we ordered, where it is delivered to, how much it costs and how long it will take</t>
+  </si>
+  <si>
+    <t>The User has put the previously given products into his shopping cart</t>
   </si>
 </sst>
 </file>
@@ -275,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,6 +566,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -343,6 +584,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1849755</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>426721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4402834</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2952751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3EE32C-AA87-4416-8230-A58561524878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="2107" r="4053" b="11769"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13279755" y="15142846"/>
+          <a:ext cx="2553079" cy="2526030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +910,7 @@
     <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="36.109375" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
     <col min="8" max="8" width="69.5546875" customWidth="1"/>
     <col min="9" max="9" width="10.21875" customWidth="1"/>
@@ -651,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -662,19 +951,21 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -682,310 +973,438 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="14" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+    <row r="15" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+    <row r="20" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+    <row r="22" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+    <row r="23" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="24" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+    <row r="25" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+    <row r="26" spans="2:9" ht="240.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2009,5 +2428,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Burgerama Burger Shop App/material/TestCases.xlsx
+++ b/Burgerama Burger Shop App/material/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanoll\source\repos\burgerama-burger-shop\Burgerama Burger Shop App\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA38D6-A0D8-4033-B6EB-16561446441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9853399-0889-4C46-9450-EB67BF7737A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6105" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -57,10 +57,6 @@
     <t>The Application should redirect either to the Registration or the Login depending on the Input</t>
   </si>
   <si>
-    <t>1) Enter either "1" or "2" in the Menu
-2) Press Enter</t>
-  </si>
-  <si>
     <t>UI012</t>
   </si>
   <si>
@@ -83,11 +79,6 @@
   </si>
   <si>
     <t>UI002-N</t>
-  </si>
-  <si>
-    <t>Input: numbers other than "1" and "2", 
-negative numbers,
-words and characters</t>
   </si>
   <si>
     <r>
@@ -115,17 +106,7 @@
     </r>
   </si>
   <si>
-    <t>Input: - HelloFresh.de
-- different kinds of words
-- only positiv and negative numbers
-- taken email: Fabian.Noll@gmail.com</t>
-  </si>
-  <si>
     <t>User should be promted to use a valid or not taken Email</t>
-  </si>
-  <si>
-    <t>1) Enter: UserTest@ks.de
-2) Press Enter</t>
   </si>
   <si>
     <t>UI003-N</t>
@@ -151,15 +132,6 @@
   </si>
   <si>
     <t>During Registration a valid Email and Password have to be entered</t>
-  </si>
-  <si>
-    <t>Input: - nothing
-- one space</t>
-  </si>
-  <si>
-    <t>Input: - any given number
-- nothing
-- just spaces</t>
   </si>
   <si>
     <t>User will be prompted to enter a valid street</t>
@@ -210,14 +182,6 @@
     </r>
   </si>
   <si>
-    <t>1) Enter: testpassword
-2) Press Enter</t>
-  </si>
-  <si>
-    <t>1) Enter: Dr Karl Storz Straße 34
-2) Press Enter</t>
-  </si>
-  <si>
     <t>Registration will be continued.
 The User will be promted to enter a ZIP</t>
   </si>
@@ -231,102 +195,690 @@
     <t>During Registration a valid Email,Password and Street have to be entered</t>
   </si>
   <si>
-    <t>Input: - nothing
-- just spaces
+    <t>The Input won`t be accepted and the User will be promted to enter a valid ZIP-Code</t>
+  </si>
+  <si>
+    <t>UI005-P</t>
+  </si>
+  <si>
+    <t>Registration will be continued.
+The User will be promted to enter a city</t>
+  </si>
+  <si>
+    <t>UI006-N</t>
+  </si>
+  <si>
+    <t>The Registration asks for a city. The Input cant be empty and muts be a german city for delivery purpouses</t>
+  </si>
+  <si>
+    <t>During Registration a valid Email,Password,Street and ZIP have to be entered</t>
+  </si>
+  <si>
+    <t>The Input won`t be accepted and the User will be promted to enter a valid city</t>
+  </si>
+  <si>
+    <t>UI006-P</t>
+  </si>
+  <si>
+    <t>Registration is completed and the User should be back at the main menu</t>
+  </si>
+  <si>
+    <t>UI007-N</t>
+  </si>
+  <si>
+    <t>The User will be promted to LogIn using a registered Email</t>
+  </si>
+  <si>
+    <t>Login is chosen from the main menu</t>
+  </si>
+  <si>
+    <t>The Input wont be accepted an the
+User should be promted to use a valid and taken Email</t>
+  </si>
+  <si>
+    <t>UI007-P</t>
+  </si>
+  <si>
+    <t>The Input will be accepted and the User will be promted to enter a password</t>
+  </si>
+  <si>
+    <t>UI008-N</t>
+  </si>
+  <si>
+    <t>The User will be promted to LogIn using a password connected to a registered Email</t>
+  </si>
+  <si>
+    <t>Login is chosen from the main menu and a registered email was entered</t>
+  </si>
+  <si>
+    <t>Input: Literally anything different than the correct password</t>
+  </si>
+  <si>
+    <t>UI008-P</t>
+  </si>
+  <si>
+    <t>UI009-N</t>
+  </si>
+  <si>
+    <t>The User can order a Product by using the number on the most left side of the table</t>
+  </si>
+  <si>
+    <t>The User is successfully logged in after choosing login from the main menu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Input must be invisible during the whole Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The Login information will be accepted, the user will be logged in and redirected to the ordermenu where a list of products should appear with the useres email at the top</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Input must be invisible during the whole Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The User will be told that the login credentials were incorrect and has to enter the email and password again</t>
+    </r>
+  </si>
+  <si>
+    <t>The Input wont be accepted an the
+User should be promted to enter a valid option</t>
+  </si>
+  <si>
+    <t>UI009-P</t>
+  </si>
+  <si>
+    <t>UI010-N</t>
+  </si>
+  <si>
+    <t>The User can order a Product by using the number on the most left side of the table. We are ordering  a Drink which has the option to get it with or without ice</t>
+  </si>
+  <si>
+    <t>The Application should ask if the user wants his drink with or without Ice. But we are not entering true or false so the User will be promted to make a valid input. The Product will not be put into the shopping cart.</t>
+  </si>
+  <si>
+    <t>UI010-P</t>
+  </si>
+  <si>
+    <t>The Input should be accepted and behind the Price of the Coca Cola a (1) should appear</t>
+  </si>
+  <si>
+    <t>The Input should be accepted and behind the Price of the Cheeseburger a (1) should appear</t>
+  </si>
+  <si>
+    <t>UI011-N</t>
+  </si>
+  <si>
+    <t>The User can order a Product by using the number on the most left side of the table. We are ordering  a Hoodie which has the option to choose a size</t>
+  </si>
+  <si>
+    <t>UI011-P</t>
+  </si>
+  <si>
+    <t>We choose a few products and now want to finish our order, want to see what we ordered, where it is delivered to, how much it costs and how long it will take</t>
+  </si>
+  <si>
+    <t>The User has put the previously given products into his shopping cart</t>
+  </si>
+  <si>
+    <t>Input: - [true]
+              - [FALSE]</t>
+  </si>
+  <si>
+    <t>Input: - numbers outside of [1] and [14], 
+- negative numbers,
+- words and characters</t>
+  </si>
+  <si>
+    <t>[] = a variable that is to be put in exactly like given (without the Brackets of course) // [] means nothing // [ ] means just spaces</t>
+  </si>
+  <si>
+    <t>Input: [] ; [      ]</t>
+  </si>
+  <si>
+    <t>Input: - any given number
+- [] ; [   ]</t>
+  </si>
+  <si>
+    <t>Input: - [] ; [   ]
 - words or characters
 - negative numbers</t>
   </si>
   <si>
-    <t>The Input won`t be accepted and the User will be promted to enter a valid ZIP-Code</t>
-  </si>
-  <si>
-    <t>UI005-P</t>
-  </si>
-  <si>
-    <t>1) Enter: 78532
+    <t>Input: - [] ; [   ]
+- words or characters
+- negative and positive numbers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input: numbers other than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 
+negative numbers,
+words and characters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input: - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HelloFresh.de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- different kinds of words
+- only positiv and negative numbers
+- taken email: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fabian.Noll@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Enter either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the Menu
 2) Press Enter</t>
-  </si>
-  <si>
-    <t>Registration will be continued.
-The User will be promted to enter a city</t>
-  </si>
-  <si>
-    <t>UI006-N</t>
-  </si>
-  <si>
-    <t>The Registration asks for a city. The Input cant be empty and muts be a german city for delivery purpouses</t>
-  </si>
-  <si>
-    <t>During Registration a valid Email,Password,Street and ZIP have to be entered</t>
-  </si>
-  <si>
-    <t>The Input won`t be accepted and the User will be promted to enter a valid city</t>
-  </si>
-  <si>
-    <t>UI006-P</t>
-  </si>
-  <si>
-    <t>1) Enter: Tuttlingen
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1) Enter:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserTest@ks.de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testpassword</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1) Enter:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dr Karl Storz Straße 34</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>78532</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tuttlingen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2) Press Enter
 3) Press Enter</t>
-  </si>
-  <si>
-    <t>Registration is completed and the User should be back at the main menu</t>
-  </si>
-  <si>
-    <t>UI007-N</t>
-  </si>
-  <si>
-    <t>The User will be promted to LogIn using a registered Email</t>
-  </si>
-  <si>
-    <t>Login is chosen from the main menu</t>
-  </si>
-  <si>
-    <t>The Input wont be accepted an the
-User should be promted to use a valid and taken Email</t>
-  </si>
-  <si>
-    <t>UI007-P</t>
-  </si>
-  <si>
-    <t>The Input will be accepted and the User will be promted to enter a password</t>
-  </si>
-  <si>
-    <t>UI008-N</t>
-  </si>
-  <si>
-    <t>The User will be promted to LogIn using a password connected to a registered Email</t>
-  </si>
-  <si>
-    <t>Login is chosen from the main menu and a registered email was entered</t>
-  </si>
-  <si>
-    <t>Input: Literally anything different than the correct password</t>
-  </si>
-  <si>
-    <t>UI008-P</t>
-  </si>
-  <si>
-    <t>UI009-N</t>
-  </si>
-  <si>
-    <t>The User can order a Product by using the number on the most left side of the table</t>
-  </si>
-  <si>
-    <t>The User is successfully logged in after choosing login from the main menu</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Input must be invisible during the whole Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserTest@ks.de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
     </r>
     <r>
       <rPr>
@@ -337,20 +889,44 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-The Login information will be accepted, the user will be logged in and redirected to the ordermenu where a list of products should appear with the useres email at the top</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Input must be invisible during the whole Time</t>
+2) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
     </r>
     <r>
       <rPr>
@@ -361,40 +937,123 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-The User will be told that the login credentials were incorrect and has to enter the email and password again</t>
-    </r>
-  </si>
-  <si>
-    <t>Input: - numbers outside of "1" and "14", 
-- negative numbers,
-- words and characters</t>
-  </si>
-  <si>
-    <t>The Input wont be accepted an the
-User should be promted to enter a valid option</t>
-  </si>
-  <si>
-    <t>UI009-P</t>
-  </si>
-  <si>
-    <t>1) Enter: 1
 2) Press Enter</t>
-  </si>
-  <si>
-    <t>UI010-N</t>
-  </si>
-  <si>
-    <t>The User can order a Product by using the number on the most left side of the table. We are ordering  a Drink which has the option to get it with or without ice</t>
-  </si>
-  <si>
-    <t>Input: - nothing
-- just spaces
-- words or characters
-- negative and positive numbers</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) Press: 7 and the Press Enter
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repeat for every given Input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Press Enter
+3) Enter from Input
+4) Press Enter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the Press Enter
 </t>
     </r>
     <r>
@@ -422,14 +1081,31 @@
     </r>
   </si>
   <si>
-    <t>The Application should ask if the user wants his drink with or without Ice. But we are not entering true or false so the User will be promted to make a valid input. The Product will not be put into the shopping cart.</t>
-  </si>
-  <si>
-    <t>UI010-P</t>
-  </si>
-  <si>
-    <t>Input: - true
-              - false</t>
+    <t>1) Enter: [14]
+2) Press Enter</t>
+  </si>
+  <si>
+    <t>The following Overview should come up and look like this:
+After Pressing Enter again the User should be linked back to the main menu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input: - [] ; [   ]
+- words or characters
+- negative and positive numbers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>except one of the sizes!</t>
+    </r>
   </si>
   <si>
     <r>
@@ -452,32 +1128,115 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1) Press: 7
+1) Enter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2) Press Enter
-3) Enter: [Input]
+3) Enter from Input
 4) Press Enter</t>
     </r>
   </si>
   <si>
-    <t>The Input should be accepted and behind the Price of the Coca Cola a (1) should appear</t>
-  </si>
-  <si>
-    <t>The Input should be accepted and behind the Price of the Cheeseburger a (1) should appear</t>
-  </si>
-  <si>
-    <t>UI011-N</t>
-  </si>
-  <si>
-    <t>The User can order a Product by using the number on the most left side of the table. We are ordering  a Hoodie which has the option to choose a size</t>
-  </si>
-  <si>
-    <t>UI011-P</t>
-  </si>
-  <si>
-    <t>We choose a few products and now want to finish our order, want to see what we ordered, where it is delivered to, how much it costs and how long it will take</t>
-  </si>
-  <si>
-    <t>The User has put the previously given products into his shopping cart</t>
+    <t>The Application should ask the user in which size they want their Hoodie. Nothing else except the size should be accepted as the input and the user should be promted to enter a valid size.</t>
+  </si>
+  <si>
+    <t>Allowed Input should be Uppercase as well as lowercase. We want an S,L and XXL</t>
+  </si>
+  <si>
+    <t>The Application should ask the user in which size they want their Hoodie. The Inout should be accepted and the Hoodie in its chosen size should be put in the shoppincart. The User should now have to possibility to order something else</t>
+  </si>
+  <si>
+    <t>UI013</t>
+  </si>
+  <si>
+    <t>We are not the User anymore. Now we are the manager and want to see if everything works in the background</t>
+  </si>
+  <si>
+    <t>The User should be in the Login Menu chosen from the Main Menu</t>
+  </si>
+  <si>
+    <t>1) Enter Email: [manager]
+2) Enter Password: [king]
+3) Press Enter</t>
+  </si>
+  <si>
+    <t>The User should now be in a overview window for the manager. There should be a Data table for orders and beneath it 3 Options to choose from.</t>
+  </si>
+  <si>
+    <t>UI014-N</t>
+  </si>
+  <si>
+    <t>We have the options as managment to either move the time forward, delete all open orders or return to the main menu. And the Manager should only be allowed to input one of the three options.</t>
+  </si>
+  <si>
+    <t>The User must be logged in as the manager. (Described in UI013)</t>
+  </si>
+  <si>
+    <t>Input: - [] ; [   ]
+- words or characters
+- negative numbers
+- positive numbers except 1-3</t>
+  </si>
+  <si>
+    <t>UI015</t>
+  </si>
+  <si>
+    <t>UI016</t>
+  </si>
+  <si>
+    <t>UI017</t>
+  </si>
+  <si>
+    <t>As the Manager we want to move the time forward to see if the orders are worked correctly and the system works</t>
+  </si>
+  <si>
+    <t>As the Manager we want to delete all closed orders so our drivers are free again and our overview gets emptier</t>
+  </si>
+  <si>
+    <t>As the Manager we ware finished with our work and want to Return / LogOut of the Manager Menu</t>
+  </si>
+  <si>
+    <t>1) Enter: [1]
+2) Press Enter</t>
+  </si>
+  <si>
+    <t>The Overview should reload and prep. Time, and Ship. Time should be decreased and some orders should have their statuses changed to Delivery. The User now has the possibility to choose again one of the menu points</t>
+  </si>
+  <si>
+    <t>1) Press: [2] 
+2) Press Enter</t>
+  </si>
+  <si>
+    <t>The User must be logged in as the manager. (Described in UI013). Ths User should repeat UI015 until at least one of the orders gets the status closed</t>
+  </si>
+  <si>
+    <t>The Overview should reload and every Order that had the status Closed should be removed from the overview. The User now has the possibility to choose again one of the menu points</t>
+  </si>
+  <si>
+    <t>1) Press: [3]
+2) Press Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The User will be send to the Main menu from where he could LogIn again or register a new account. </t>
   </si>
 </sst>
 </file>
@@ -507,7 +1266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +1282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,6 +1333,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,15 +1362,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1849755</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>426721</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4402834</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2952751</xdr:rowOff>
+      <xdr:colOff>2949319</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2724151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -621,8 +1392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13279755" y="15142846"/>
-          <a:ext cx="2553079" cy="2526030"/>
+          <a:off x="11820525" y="14649451"/>
+          <a:ext cx="2558794" cy="2533650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I238"/>
+  <dimension ref="B2:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,56 +1687,42 @@
     <col min="9" max="9" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -973,501 +1730,581 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
+    <row r="16" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
+    <row r="20" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" ht="240.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+    <row r="27" spans="2:9" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -1950,52 +2787,59 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="4"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
@@ -2424,7 +3268,13 @@
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="4"/>
     </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Burgerama Burger Shop App/material/TestCases.xlsx
+++ b/Burgerama Burger Shop App/material/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanoll\source\repos\burgerama-burger-shop\Burgerama Burger Shop App\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9853399-0889-4C46-9450-EB67BF7737A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0387D-D2BB-48DF-B04D-74E78BA89584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6105" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -1237,6 +1237,9 @@
   </si>
   <si>
     <t xml:space="preserve">The User will be send to the Main menu from where he could LogIn again or register a new account. </t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1315,11 +1318,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,6 +1383,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1363,14 +1422,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2949319</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2724151</xdr:rowOff>
+      <xdr:colOff>2953129</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2720341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1400,6 +1459,190 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32537C4B-DB12-479F-BCC2-8C960C2FC70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="529590" y="95250"/>
+          <a:ext cx="3242310" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Project Name:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Burgerama Burger Shop App</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Module Name: User Interface Manuell Testing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Created By: Fabian Noll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Creation Date: 17.10.2022</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1906905</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69757CB-C6A9-499D-9471-ED687305F57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="97155"/>
+          <a:ext cx="3230880" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Project Name:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Burgerama Burger Shop App</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Module Name: User Interface Manuell Testing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Reviewed By: Fabian Noll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t>Review Date: 18.10.2022</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1668,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I239"/>
+  <dimension ref="B6:I243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1687,300 +1930,232 @@
     <col min="9" max="9" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="7" t="s">
+    <row r="6" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+    <row r="9" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>79</v>
@@ -1989,825 +2164,937 @@
         <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="3"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="3"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="3"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="3"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="3"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="3"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="3"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="3"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="3"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="3"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="3"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
@@ -3271,9 +3558,21 @@
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="4"/>
     </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="4"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="4"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="4"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burgerama Burger Shop App/material/TestCases.xlsx
+++ b/Burgerama Burger Shop App/material/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanoll\source\repos\burgerama-burger-shop\Burgerama Burger Shop App\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0387D-D2BB-48DF-B04D-74E78BA89584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB31AD5-1273-42DA-9ABC-0DA74C98FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6105" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1179,9 +1179,6 @@
 3) Press Enter</t>
   </si>
   <si>
-    <t>The User should now be in a overview window for the manager. There should be a Data table for orders and beneath it 3 Options to choose from.</t>
-  </si>
-  <si>
     <t>UI014-N</t>
   </si>
   <si>
@@ -1219,9 +1216,6 @@
 2) Press Enter</t>
   </si>
   <si>
-    <t>The Overview should reload and prep. Time, and Ship. Time should be decreased and some orders should have their statuses changed to Delivery. The User now has the possibility to choose again one of the menu points</t>
-  </si>
-  <si>
     <t>1) Press: [2] 
 2) Press Enter</t>
   </si>
@@ -1240,6 +1234,12 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>The User should now be in a overview window for the manager. There should be a Data table for orders and beneath it 3 Options to choose from. Also a Driver Overview with the name, open orders, capacity and mood should appear</t>
+  </si>
+  <si>
+    <t>The Overview should reload and prep. Time, and Ship. Time should be decreased and some orders should have their statuses changed to Delivery. The User now has the possibility to choose again one of the menu points. Also the Driver Overview should change. If orders get closed the open Order count should go down, the mood of the driver should change also.</t>
   </si>
 </sst>
 </file>
@@ -1914,23 +1914,23 @@
   <dimension ref="B6:I243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="69.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="69.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="11" t="s">
         <v>76</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="82.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1983,10 +1983,10 @@
         <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -2005,10 +2005,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2029,10 +2029,10 @@
         <v>19</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -2051,10 +2051,10 @@
         <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -2075,10 +2075,10 @@
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -2097,10 +2097,10 @@
         <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -2121,10 +2121,10 @@
         <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>29</v>
@@ -2143,10 +2143,10 @@
         <v>32</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2167,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
         <v>37</v>
@@ -2189,10 +2189,10 @@
         <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -2213,10 +2213,10 @@
         <v>42</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
@@ -2235,10 +2235,10 @@
         <v>44</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
         <v>45</v>
@@ -2259,10 +2259,10 @@
         <v>48</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
         <v>49</v>
@@ -2281,10 +2281,10 @@
         <v>50</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
         <v>51</v>
@@ -2305,10 +2305,10 @@
         <v>60</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
         <v>55</v>
@@ -2327,10 +2327,10 @@
         <v>59</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
@@ -2351,10 +2351,10 @@
         <v>61</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="2" t="s">
         <v>62</v>
@@ -2373,10 +2373,10 @@
         <v>68</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="2" t="s">
         <v>63</v>
@@ -2397,10 +2397,10 @@
         <v>65</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="2" t="s">
         <v>66</v>
@@ -2421,10 +2421,10 @@
         <v>67</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="2" t="s">
         <v>69</v>
@@ -2445,10 +2445,10 @@
         <v>97</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="2" t="s">
         <v>71</v>
@@ -2469,10 +2469,10 @@
         <v>99</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -2491,10 +2491,10 @@
         <v>94</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
         <v>100</v>
@@ -2510,25 +2510,25 @@
         <v>103</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>18</v>
@@ -2537,76 +2537,76 @@
         <v>61</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2616,7 +2616,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -2626,7 +2626,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="3"/>
@@ -2636,7 +2636,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="3"/>
@@ -2646,7 +2646,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3"/>
@@ -2656,7 +2656,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2666,7 +2666,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2676,7 +2676,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2686,7 +2686,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2696,7 +2696,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2706,7 +2706,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2716,7 +2716,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2726,7 +2726,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2736,7 +2736,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2746,7 +2746,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2756,7 +2756,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2766,7 +2766,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2776,7 +2776,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2786,7 +2786,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2796,7 +2796,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2806,7 +2806,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2816,7 +2816,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2826,7 +2826,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2836,7 +2836,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2846,7 +2846,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2856,7 +2856,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2866,7 +2866,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2876,7 +2876,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2886,7 +2886,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2896,7 +2896,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2906,7 +2906,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2916,7 +2916,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2926,7 +2926,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2936,7 +2936,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2946,7 +2946,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2956,7 +2956,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2966,7 +2966,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2976,7 +2976,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2986,7 +2986,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2996,7 +2996,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3006,7 +3006,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3016,7 +3016,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3026,7 +3026,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3036,7 +3036,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3046,7 +3046,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3056,7 +3056,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3066,7 +3066,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3076,7 +3076,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3086,7 +3086,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3096,478 +3096,478 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="4"/>
     </row>
   </sheetData>
